--- a/biology/Zoologie/Bar_(poisson)/Bar_(poisson).xlsx
+++ b/biology/Zoologie/Bar_(poisson)/Bar_(poisson).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bar est un nom vernaculaire ambigu désignant en français certains poissons, essentiellement de la famille des Moronidés. Le terme de « bar » désigne principalement deux espèces : le bar commun (Dicentrarchus labrax) et le bar tacheté (Dicentrarchus punctatus).
 </t>
@@ -511,7 +523,9 @@
           <t>Physiologie, comportement et écologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les caractéristiques générales des bars sont celles des poissons, principalement de la famille des Moronidae ou bien des Sciaenidae, avec des nuances pour chaque espèce : voir les articles détaillés pour plus d'informations sur leur description ou leur mode de vie.
 </t>
@@ -542,7 +556,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot « bar » vient du germanique bars, ce qui veut dire pointe, en référence aux dangereuses épines dorsales de ce poisson.
 Le bar commun est surnommé « loup » ou « perche de mer », dans la région méditerranéenne. Cependant, les mots bar et loup ne sont pas complètement synonymes puisque loup désigne aussi les poissons du genre Anarhichas, qui sont eux uniquement appelés loups.
@@ -574,25 +590,61 @@
           <t>Noms français et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Liste alphabétique de noms vulgaires ou de noms vernaculaires attestés[1] en français. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Liste alphabétique de noms vulgaires ou de noms vernaculaires attestés en français. 
 Note : certaines espèces ont plusieurs noms et, les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide. 
 En gras, les espèces les plus connues des francophones.
-Bar, Bar commun, bar européen, bar franc, loup, louvine[2], loubine - Dicentrarchus labrax[3]
-Bar tacheté, bar moucheté, pigaye[2], pigate[2] - Dicentrarchus punctatus[3]
-Bar d'Amérique, bar rayé - Morone saxatilis ou l'hybride (Morone chrysops ×Morone saxatilis)[3]
-Bar blanc - Morone chrysops[3]
-Bar blanc d'amérique, baret, perche blanche, bar-perche ou petit bar - Morone americana[3]
-Bar gigantesque, bar noir - Stereolepis gigas[3]
-Bar du Japon, bar japonais - Lateolabrax japonicus[3]
-Bar à nageoires noires - Lateolabrax latus[3]
-Bar noir, Bar d'Amérique - Micropterus salmoides[3]
-Bar noir à petite bouche, Bar d'Amérique à petite bouche - Micropterus dolomieu[3]
-Appellations commerciales
-Il ne faut pas confondre les noms d'espèces nommées « bar » avec les appellations commerciales suivantes :
-Bar de ligne : bar commun sauvage (Dicentrarchus labrax)  pêché à la ligne en mer et qui a fait l'objet d'une écolabellisation dans les années 1990[4].
-Bar noir : nom donné parfois sur les étals de poissonniers et dans la restauration aux mérous noirs[5][source insuffisante].</t>
+Bar, Bar commun, bar européen, bar franc, loup, louvine, loubine - Dicentrarchus labrax
+Bar tacheté, bar moucheté, pigaye, pigate - Dicentrarchus punctatus
+Bar d'Amérique, bar rayé - Morone saxatilis ou l'hybride (Morone chrysops ×Morone saxatilis)
+Bar blanc - Morone chrysops
+Bar blanc d'amérique, baret, perche blanche, bar-perche ou petit bar - Morone americana
+Bar gigantesque, bar noir - Stereolepis gigas
+Bar du Japon, bar japonais - Lateolabrax japonicus
+Bar à nageoires noires - Lateolabrax latus
+Bar noir, Bar d'Amérique - Micropterus salmoides
+Bar noir à petite bouche, Bar d'Amérique à petite bouche - Micropterus dolomieu</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bar_(poisson)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bar_(poisson)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Noms français et noms scientifiques correspondants</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Appellations commerciales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Il ne faut pas confondre les noms d'espèces nommées « bar » avec les appellations commerciales suivantes :
+Bar de ligne : bar commun sauvage (Dicentrarchus labrax)  pêché à la ligne en mer et qui a fait l'objet d'une écolabellisation dans les années 1990.
+Bar noir : nom donné parfois sur les étals de poissonniers et dans la restauration aux mérous noirs[source insuffisante].</t>
         </is>
       </c>
     </row>
